--- a/data-raw/NutrientData/nutrientDetails/phytateSources.xlsx
+++ b/data-raw/NutrientData/nutrientDetails/phytateSources.xlsx
@@ -1174,7 +1174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1212,6 +1212,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1505,13 +1508,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="11"/>
+    <col min="2" max="2" width="71.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="14"/>
     <col min="5" max="5" width="10.83203125" style="6"/>
   </cols>
@@ -1538,19 +1542,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>5</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>320</v>
       </c>
       <c r="C2" s="14">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="E2" s="6">
-        <v>2128</v>
+        <v>2471</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1571,116 +1575,125 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>167</v>
+      <c r="A4" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4" s="15">
-        <v>100</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5"/>
+        <v>221</v>
+      </c>
+      <c r="C4" s="14">
+        <v>100</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2128</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>218</v>
+      <c r="A5" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>224</v>
+        <v>319</v>
       </c>
       <c r="C5" s="14">
         <v>100</v>
       </c>
+      <c r="E5" s="6">
+        <v>2128</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>219</v>
+      <c r="A6" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>225</v>
+        <v>308</v>
       </c>
       <c r="C6" s="14">
-        <v>100</v>
+        <v>51</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2052</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>226</v>
+        <v>310</v>
       </c>
       <c r="C7" s="14">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E7" s="6">
-        <v>63</v>
+        <v>2052</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>166</v>
+      <c r="A8" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="B8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C8" s="15">
-        <v>100</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5"/>
+        <v>347</v>
+      </c>
+      <c r="C8" s="14">
+        <v>100</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1957</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>165</v>
+      <c r="A9" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>228</v>
-      </c>
-      <c r="C9" s="15">
-        <v>100</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5"/>
+        <v>345</v>
+      </c>
+      <c r="C9" s="14">
+        <v>100</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1901</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>229</v>
+        <v>307</v>
       </c>
       <c r="C10" s="14">
-        <v>93</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="E10" s="6">
-        <v>0</v>
+        <v>1728</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>6</v>
@@ -1688,36 +1701,33 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s">
-        <v>230</v>
+        <v>344</v>
       </c>
       <c r="C11" s="14">
         <v>100</v>
       </c>
       <c r="E11" s="6">
-        <v>0</v>
+        <v>1485</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>6</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>231</v>
+        <v>309</v>
       </c>
       <c r="C12" s="14">
-        <v>74</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="E12" s="6">
-        <v>141</v>
+        <v>1372</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>6</v>
@@ -1725,16 +1735,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>232</v>
+        <v>342</v>
       </c>
       <c r="C13" s="14">
-        <v>64</v>
+        <v>73</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E13" s="6">
-        <v>3</v>
+        <v>1314</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>6</v>
@@ -1742,39 +1755,33 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>233</v>
+        <v>324</v>
       </c>
       <c r="C14" s="14">
-        <v>95</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E14" s="6">
-        <v>3</v>
+        <v>1244</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s">
-        <v>234</v>
+        <v>351</v>
       </c>
       <c r="C15" s="14">
-        <v>90</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E15" s="6">
-        <v>0</v>
+        <v>1180</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>6</v>
@@ -1782,39 +1789,36 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>235</v>
+        <v>325</v>
       </c>
       <c r="C16" s="14">
-        <v>92</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E16" s="6">
-        <v>0</v>
+        <v>1041</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>236</v>
+        <v>311</v>
       </c>
       <c r="C17" s="14">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E17" s="6">
-        <v>2</v>
+        <v>943</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>6</v>
@@ -1822,172 +1826,152 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="B18" t="s">
-        <v>237</v>
+        <v>353</v>
       </c>
       <c r="C18" s="14">
-        <v>98</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E18" s="6">
-        <v>2</v>
+        <v>894</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>82</v>
+      <c r="A19" s="13">
+        <v>20014</v>
       </c>
       <c r="B19" t="s">
-        <v>238</v>
+        <v>348</v>
       </c>
       <c r="C19" s="14">
-        <v>99</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="E19" s="6">
-        <v>30</v>
-      </c>
-      <c r="F19" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="F19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s">
-        <v>239</v>
+        <v>349</v>
       </c>
       <c r="C20" s="14">
-        <v>96</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="E20" s="6">
-        <v>101</v>
+        <v>835</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>91</v>
+      <c r="A21" s="12">
+        <v>16085</v>
       </c>
       <c r="B21" t="s">
-        <v>240</v>
+        <v>341</v>
       </c>
       <c r="C21" s="14">
         <v>100</v>
       </c>
       <c r="E21" s="6">
-        <v>7</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>6</v>
+        <v>820</v>
+      </c>
+      <c r="F21" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s">
-        <v>241</v>
+        <v>354</v>
       </c>
       <c r="C22" s="14">
-        <v>50</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="E22" s="6">
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>6</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>205</v>
+      <c r="A23" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>242</v>
-      </c>
-      <c r="C23" s="15">
-        <v>100</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="5"/>
+        <v>340</v>
+      </c>
+      <c r="C23" s="14">
+        <v>100</v>
+      </c>
+      <c r="E23" s="6">
+        <v>770</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="B24" t="s">
-        <v>243</v>
+        <v>352</v>
       </c>
       <c r="C24" s="14">
-        <v>96</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="E24" s="6">
-        <v>7</v>
+        <v>725</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>203</v>
+      <c r="A25" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="B25" t="s">
-        <v>244</v>
-      </c>
-      <c r="C25" s="15">
-        <v>100</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0</v>
-      </c>
-      <c r="F25" s="5"/>
+        <v>346</v>
+      </c>
+      <c r="C25" s="14">
+        <v>100</v>
+      </c>
+      <c r="E25" s="6">
+        <v>697</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="B26" t="s">
-        <v>245</v>
+        <v>350</v>
       </c>
       <c r="C26" s="14">
-        <v>78</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E26" s="6">
-        <v>26</v>
+        <v>682</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>6</v>
@@ -1995,39 +1979,36 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="B27" t="s">
-        <v>246</v>
+        <v>328</v>
       </c>
       <c r="C27" s="14">
-        <v>76</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E27" s="6">
-        <v>7</v>
+        <v>646</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>6</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B28" t="s">
-        <v>247</v>
+        <v>315</v>
       </c>
       <c r="C28" s="14">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E28" s="6">
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>6</v>
@@ -2035,28 +2016,27 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="B29" t="s">
-        <v>248</v>
-      </c>
-      <c r="C29" s="15">
-        <v>100</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E29" s="4">
-        <v>0</v>
-      </c>
-      <c r="F29" s="5"/>
+        <v>355</v>
+      </c>
+      <c r="C29" s="14">
+        <v>100</v>
+      </c>
+      <c r="E29" s="6">
+        <v>603</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>207</v>
+      <c r="A30" s="12">
+        <v>16060</v>
       </c>
       <c r="B30" t="s">
-        <v>249</v>
+        <v>337</v>
       </c>
       <c r="C30" s="15">
         <v>100</v>
@@ -2065,352 +2045,346 @@
         <v>168</v>
       </c>
       <c r="E30" s="4">
-        <v>0</v>
-      </c>
-      <c r="F30" s="5"/>
+        <v>565</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
-        <v>119</v>
+      <c r="A31" s="19" t="s">
+        <v>157</v>
       </c>
       <c r="B31" t="s">
-        <v>250</v>
+        <v>356</v>
       </c>
       <c r="C31" s="14">
-        <v>84</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E31" s="6">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="B32" t="s">
-        <v>251</v>
+        <v>329</v>
       </c>
       <c r="C32" s="14">
-        <v>51</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E32" s="6">
-        <v>46</v>
+        <v>522</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>6</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
-        <v>121</v>
+      <c r="A33" s="12">
+        <v>16101</v>
       </c>
       <c r="B33" t="s">
-        <v>252</v>
-      </c>
-      <c r="C33" s="14">
-        <v>80</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E33" s="6">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>6</v>
+        <v>343</v>
+      </c>
+      <c r="C33" s="15">
+        <v>100</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" s="4">
+        <v>516</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>253</v>
+        <v>330</v>
       </c>
       <c r="C34" s="14">
-        <v>73</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="E34" s="6">
-        <v>3</v>
+        <v>506</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>210</v>
+        <v>108</v>
       </c>
       <c r="B35" t="s">
-        <v>254</v>
-      </c>
-      <c r="C35" s="15">
-        <v>100</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E35" s="4">
-        <v>0</v>
-      </c>
-      <c r="F35" s="5"/>
+        <v>313</v>
+      </c>
+      <c r="C35" s="14">
+        <v>25</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" s="6">
+        <v>499</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>209</v>
+        <v>141</v>
       </c>
       <c r="B36" t="s">
-        <v>255</v>
-      </c>
-      <c r="C36" s="15">
-        <v>100</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E36" s="4">
-        <v>0</v>
-      </c>
-      <c r="F36" s="5"/>
+        <v>332</v>
+      </c>
+      <c r="C36" s="14">
+        <v>100</v>
+      </c>
+      <c r="E36" s="6">
+        <v>482</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>256</v>
+        <v>338</v>
       </c>
       <c r="C37" s="14">
-        <v>74</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="E37" s="6">
+        <v>430</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
-        <v>213</v>
-      </c>
       <c r="B38" t="s">
-        <v>257</v>
-      </c>
-      <c r="C38" s="15">
-        <v>100</v>
-      </c>
-      <c r="D38" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C38" s="14">
+        <v>100</v>
+      </c>
+      <c r="E38" s="6">
+        <v>414</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="13">
+        <v>11215</v>
+      </c>
+      <c r="B39" t="s">
+        <v>288</v>
+      </c>
+      <c r="C39" s="14">
+        <v>87</v>
+      </c>
+      <c r="D39" t="s">
+        <v>185</v>
+      </c>
+      <c r="E39" s="6">
+        <v>319</v>
+      </c>
+      <c r="F39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="12">
+        <v>16056</v>
+      </c>
+      <c r="B40" t="s">
+        <v>336</v>
+      </c>
+      <c r="C40" s="15">
+        <v>100</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E38" s="4">
-        <v>0</v>
-      </c>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" t="s">
-        <v>258</v>
-      </c>
-      <c r="C39" s="14">
-        <v>62</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="6">
-        <v>26</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" t="s">
-        <v>259</v>
-      </c>
-      <c r="C40" s="14">
-        <v>96</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="6">
-        <v>0</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>6</v>
+      <c r="E40" s="4">
+        <v>313</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="C41" s="14">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="E41" s="6">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="B42" t="s">
-        <v>261</v>
+        <v>317</v>
       </c>
       <c r="C42" s="14">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="E42" s="6">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="B43" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="C43" s="14">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="E43" s="6">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
-        <v>214</v>
+      <c r="A44" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="B44" t="s">
-        <v>263</v>
-      </c>
-      <c r="C44" s="15">
-        <v>100</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E44" s="4">
-        <v>0</v>
-      </c>
-      <c r="F44" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C44" s="14">
+        <v>45</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" s="6">
+        <v>230</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
-        <v>211</v>
+      <c r="A45" s="11" t="s">
+        <v>159</v>
       </c>
       <c r="B45" t="s">
-        <v>264</v>
-      </c>
-      <c r="C45" s="15">
-        <v>100</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E45" s="4">
-        <v>0</v>
-      </c>
-      <c r="F45" s="5"/>
+        <v>357</v>
+      </c>
+      <c r="C45" s="14">
+        <v>100</v>
+      </c>
+      <c r="E45" s="6">
+        <v>226</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="B46" t="s">
-        <v>265</v>
-      </c>
-      <c r="C46" s="15">
-        <v>100</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E46" s="4">
-        <v>0</v>
-      </c>
-      <c r="F46" s="5"/>
+        <v>312</v>
+      </c>
+      <c r="C46" s="14">
+        <v>51</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46" s="6">
+        <v>190</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="C47" s="14">
-        <v>65</v>
+        <v>38</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="E47" s="6">
-        <v>8</v>
+        <v>189</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C48" s="14">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E48" s="6">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>6</v>
@@ -2418,19 +2392,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="C49" s="14">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="E49" s="6">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>6</v>
@@ -2438,705 +2412,706 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="B50" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="C50" s="14">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="E50" s="6">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="B51" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="C51" s="14">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="E51" s="6">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="C52" s="14">
-        <v>96</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="E52" s="6">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="B53" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="C53" s="14">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D53" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E53" s="6">
+        <v>88</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="13">
+        <v>11677</v>
+      </c>
+      <c r="B54" t="s">
+        <v>304</v>
+      </c>
+      <c r="C54" s="14">
+        <v>88</v>
+      </c>
+      <c r="D54" t="s">
+        <v>196</v>
+      </c>
+      <c r="E54" s="6">
+        <v>74</v>
+      </c>
+      <c r="F54" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" t="s">
+        <v>226</v>
+      </c>
+      <c r="C55" s="14">
         <v>90</v>
       </c>
-      <c r="E53" s="6">
-        <v>11</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" t="s">
-        <v>273</v>
-      </c>
-      <c r="C54" s="14">
-        <v>52</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E54" s="6">
-        <v>3</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B55" t="s">
-        <v>274</v>
-      </c>
-      <c r="C55" s="15">
-        <v>100</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E55" s="4">
-        <v>0</v>
-      </c>
-      <c r="F55" s="5"/>
+      <c r="D55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E55" s="6">
+        <v>63</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="11" t="s">
-        <v>57</v>
+      <c r="A56" s="13">
+        <v>11265</v>
       </c>
       <c r="B56" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="C56" s="14">
-        <v>92</v>
-      </c>
-      <c r="D56" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D56" t="s">
+        <v>189</v>
+      </c>
+      <c r="E56" s="6">
+        <v>63</v>
+      </c>
+      <c r="F56" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" t="s">
+        <v>279</v>
+      </c>
+      <c r="C57" s="14">
+        <v>100</v>
+      </c>
+      <c r="E57" s="6">
+        <v>60</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>284</v>
+      </c>
+      <c r="C58" s="14">
+        <v>84</v>
+      </c>
+      <c r="E58" s="6">
         <v>58</v>
       </c>
-      <c r="E56" s="6">
-        <v>188</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="B57" t="s">
-        <v>276</v>
-      </c>
-      <c r="C57" s="15">
-        <v>100</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E57" s="4">
-        <v>0</v>
-      </c>
-      <c r="F57" s="5"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="13">
-        <v>11007</v>
-      </c>
-      <c r="B58" t="s">
-        <v>277</v>
-      </c>
-      <c r="C58" s="14">
-        <v>40</v>
-      </c>
-      <c r="D58" t="s">
-        <v>171</v>
-      </c>
-      <c r="E58" s="6">
-        <v>12.0001</v>
-      </c>
-      <c r="F58" t="s">
-        <v>172</v>
+      <c r="F58" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="13">
-        <v>11011</v>
+      <c r="A59" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="C59" s="14">
-        <v>53</v>
-      </c>
-      <c r="D59" t="s">
-        <v>173</v>
+        <v>74</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="E59" s="6">
-        <v>20</v>
-      </c>
-      <c r="F59" t="s">
+        <v>50</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="11" t="s">
-        <v>75</v>
+      <c r="A60" s="13">
+        <v>11209</v>
       </c>
       <c r="B60" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="C60" s="14">
-        <v>100</v>
+        <v>81</v>
+      </c>
+      <c r="D60" t="s">
+        <v>183</v>
       </c>
       <c r="E60" s="6">
-        <v>60</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>76</v>
+        <v>49</v>
+      </c>
+      <c r="F60" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="13">
-        <v>11052</v>
+      <c r="A61" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="B61" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="C61" s="14">
-        <v>88</v>
-      </c>
-      <c r="D61" t="s">
-        <v>174</v>
+        <v>51</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="E61" s="6">
-        <v>27</v>
-      </c>
-      <c r="F61" t="s">
-        <v>175</v>
+        <v>46</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="C62" s="14">
-        <v>61</v>
-      </c>
-      <c r="D62" t="s">
-        <v>180</v>
+        <v>72</v>
       </c>
       <c r="E62" s="6">
-        <v>18</v>
-      </c>
-      <c r="F62" t="s">
-        <v>6</v>
+        <v>44</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="13">
-        <v>11109</v>
+        <v>11670</v>
       </c>
       <c r="B63" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="C63" s="14">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D63" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E63" s="6">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="F63" t="s">
-        <v>6</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="13">
-        <v>11124</v>
+      <c r="A64" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="B64" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C64" s="14">
-        <v>89</v>
-      </c>
-      <c r="D64" t="s">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="E64" s="6">
-        <v>11</v>
-      </c>
-      <c r="F64" t="s">
-        <v>178</v>
+        <v>31</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="B65" t="s">
-        <v>284</v>
+        <v>238</v>
       </c>
       <c r="C65" s="14">
-        <v>84</v>
+        <v>99</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="E65" s="6">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="10" t="s">
-        <v>169</v>
+      <c r="A66" s="13">
+        <v>11246</v>
       </c>
       <c r="B66" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C66" s="14">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D66" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E66" s="6">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F66" t="s">
-        <v>6</v>
+        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="13">
-        <v>11205</v>
+        <v>11052</v>
       </c>
       <c r="B67" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C67" s="14">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D67" t="s">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="E67" s="6">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="F67" t="s">
-        <v>6</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="13">
-        <v>11209</v>
+      <c r="A68" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="B68" t="s">
-        <v>287</v>
+        <v>245</v>
       </c>
       <c r="C68" s="14">
-        <v>81</v>
-      </c>
-      <c r="D68" t="s">
-        <v>183</v>
+        <v>78</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="E68" s="6">
-        <v>49</v>
-      </c>
-      <c r="F68" t="s">
-        <v>184</v>
+        <v>26</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="13">
-        <v>11215</v>
+      <c r="A69" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="B69" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="C69" s="14">
-        <v>87</v>
-      </c>
-      <c r="D69" t="s">
-        <v>185</v>
+        <v>62</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="E69" s="6">
-        <v>319</v>
-      </c>
-      <c r="F69" t="s">
+        <v>26</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="13">
-        <v>11246</v>
+        <v>11546</v>
       </c>
       <c r="B70" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="C70" s="14">
-        <v>44</v>
-      </c>
-      <c r="D70" t="s">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="E70" s="6">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F70" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="13">
-        <v>11257</v>
+        <v>11011</v>
       </c>
       <c r="B71" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C71" s="14">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="D71" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="E71" s="6">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F71" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="13">
-        <v>11265</v>
+      <c r="A72" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="B72" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C72" s="14">
-        <v>97</v>
-      </c>
-      <c r="D72" t="s">
-        <v>189</v>
+        <v>75</v>
       </c>
       <c r="E72" s="6">
-        <v>63</v>
-      </c>
-      <c r="F72" t="s">
-        <v>190</v>
+        <v>19</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="13">
-        <v>11278</v>
+      <c r="A73" s="11" t="s">
+        <v>170</v>
       </c>
       <c r="B73" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C73" s="14">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="D73" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E73" s="6">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F73" t="s">
-        <v>193</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="13">
-        <v>11282</v>
+        <v>11422</v>
       </c>
       <c r="B74" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C74" s="14">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D74" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E74" s="6">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="11" t="s">
-        <v>62</v>
+      <c r="A75" s="13">
+        <v>11007</v>
       </c>
       <c r="B75" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="C75" s="14">
-        <v>38</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>63</v>
+        <v>40</v>
+      </c>
+      <c r="D75" t="s">
+        <v>171</v>
       </c>
       <c r="E75" s="6">
-        <v>189</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>64</v>
+        <v>12.0001</v>
+      </c>
+      <c r="F75" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C76" s="14">
-        <v>75</v>
+        <v>94</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="E76" s="6">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="13">
-        <v>11422</v>
+        <v>11124</v>
       </c>
       <c r="B77" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="C77" s="14">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D77" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="E77" s="6">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="13">
-        <v>11457</v>
+        <v>11278</v>
       </c>
       <c r="B78" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C78" s="14">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D78" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E78" s="6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>6</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B79" t="s">
+        <v>266</v>
+      </c>
+      <c r="C79" s="14">
         <v>65</v>
       </c>
-      <c r="B79" t="s">
-        <v>298</v>
-      </c>
-      <c r="C79" s="14">
-        <v>72</v>
-      </c>
       <c r="E79" s="6">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="B80" t="s">
-        <v>299</v>
+        <v>240</v>
       </c>
       <c r="C80" s="14">
         <v>100</v>
       </c>
       <c r="E80" s="6">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="13">
-        <v>11529</v>
+      <c r="A81" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>300</v>
+        <v>243</v>
       </c>
       <c r="C81" s="14">
-        <v>91</v>
-      </c>
-      <c r="D81" t="s">
-        <v>201</v>
+        <v>96</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E81" s="6">
-        <v>5</v>
-      </c>
-      <c r="F81" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="13">
-        <v>11546</v>
+      <c r="A82" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="B82" t="s">
-        <v>301</v>
+        <v>246</v>
       </c>
       <c r="C82" s="14">
-        <v>100</v>
+        <v>76</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="E82" s="6">
-        <v>23</v>
-      </c>
-      <c r="F82" t="s">
-        <v>202</v>
+        <v>7</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="B83" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="C83" s="14">
-        <v>86</v>
+        <v>96</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E83" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>78</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="13">
-        <v>11670</v>
+        <v>11457</v>
       </c>
       <c r="B84" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C84" s="14">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D84" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="E84" s="6">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F84" t="s">
-        <v>182</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="13">
-        <v>11677</v>
+        <v>11282</v>
       </c>
       <c r="B85" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C85" s="14">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D85" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E85" s="6">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="F85" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="13">
-        <v>11885</v>
+        <v>11529</v>
       </c>
       <c r="B86" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C86" s="14">
-        <v>100</v>
+        <v>91</v>
+      </c>
+      <c r="D86" t="s">
+        <v>201</v>
       </c>
       <c r="E86" s="6">
         <v>5</v>
@@ -3147,73 +3122,70 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="B87" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C87" s="14">
-        <v>97</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="E87" s="6">
-        <v>303</v>
+        <v>5</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="11" t="s">
-        <v>81</v>
+      <c r="A88" s="13">
+        <v>11885</v>
       </c>
       <c r="B88" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C88" s="14">
         <v>100</v>
       </c>
       <c r="E88" s="6">
-        <v>1728</v>
-      </c>
-      <c r="F88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F88" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="11" t="s">
-        <v>86</v>
+      <c r="A89" s="10" t="s">
+        <v>169</v>
       </c>
       <c r="B89" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="C89" s="14">
-        <v>51</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>87</v>
+        <v>39</v>
+      </c>
+      <c r="D89" t="s">
+        <v>179</v>
       </c>
       <c r="E89" s="6">
-        <v>2052</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>88</v>
+        <v>4</v>
+      </c>
+      <c r="F89" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>309</v>
+        <v>232</v>
       </c>
       <c r="C90" s="14">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="E90" s="6">
-        <v>1372</v>
+        <v>3</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>6</v>
@@ -3221,19 +3193,19 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91" t="s">
+        <v>233</v>
+      </c>
+      <c r="C91" s="14">
         <v>95</v>
       </c>
-      <c r="B91" t="s">
-        <v>310</v>
-      </c>
-      <c r="C91" s="14">
-        <v>54</v>
-      </c>
       <c r="D91" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E91" s="6">
-        <v>2052</v>
+        <v>3</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>6</v>
@@ -3241,19 +3213,19 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="B92" t="s">
-        <v>311</v>
+        <v>253</v>
       </c>
       <c r="C92" s="14">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="E92" s="6">
-        <v>943</v>
+        <v>3</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>6</v>
@@ -3261,19 +3233,19 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="B93" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="C93" s="14">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="E93" s="6">
-        <v>190</v>
+        <v>3</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>6</v>
@@ -3281,19 +3253,19 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B94" t="s">
-        <v>313</v>
+        <v>236</v>
       </c>
       <c r="C94" s="14">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E94" s="6">
-        <v>499</v>
+        <v>2</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>6</v>
@@ -3301,186 +3273,190 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B95" t="s">
-        <v>314</v>
+        <v>237</v>
       </c>
       <c r="C95" s="14">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="E95" s="6">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="11" t="s">
-        <v>125</v>
+      <c r="A96" s="13">
+        <v>11109</v>
       </c>
       <c r="B96" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="C96" s="14">
-        <v>52</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>126</v>
+        <v>80</v>
+      </c>
+      <c r="D96" t="s">
+        <v>176</v>
       </c>
       <c r="E96" s="6">
-        <v>620</v>
-      </c>
-      <c r="F96" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F96" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="11" t="s">
-        <v>127</v>
+      <c r="A97" s="13">
+        <v>11205</v>
       </c>
       <c r="B97" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="C97" s="14">
-        <v>41</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>128</v>
+        <v>97</v>
+      </c>
+      <c r="D97" t="s">
+        <v>53</v>
       </c>
       <c r="E97" s="6">
+        <v>2</v>
+      </c>
+      <c r="F97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="13">
+        <v>11257</v>
+      </c>
+      <c r="B98" t="s">
+        <v>290</v>
+      </c>
+      <c r="C98" s="14">
+        <v>80</v>
+      </c>
+      <c r="D98" t="s">
+        <v>188</v>
+      </c>
+      <c r="E98" s="6">
+        <v>2</v>
+      </c>
+      <c r="F98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B99" t="s">
+        <v>223</v>
+      </c>
+      <c r="C99" s="15">
+        <v>100</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E99" s="4">
+        <v>0</v>
+      </c>
+      <c r="F99" s="5"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B100" t="s">
+        <v>227</v>
+      </c>
+      <c r="C100" s="15">
+        <v>100</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E100" s="4">
+        <v>0</v>
+      </c>
+      <c r="F100" s="5"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B101" t="s">
+        <v>228</v>
+      </c>
+      <c r="C101" s="15">
+        <v>100</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E101" s="4">
+        <v>0</v>
+      </c>
+      <c r="F101" s="5"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" t="s">
+        <v>229</v>
+      </c>
+      <c r="C102" s="14">
+        <v>93</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" s="6">
+        <v>0</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B103" t="s">
         <v>230</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="B98" t="s">
-        <v>317</v>
-      </c>
-      <c r="C98" s="14">
-        <v>53</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E98" s="6">
-        <v>290</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B99" t="s">
-        <v>318</v>
-      </c>
-      <c r="C99" s="14">
-        <v>45</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E99" s="6">
-        <v>230</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B100" t="s">
-        <v>319</v>
-      </c>
-      <c r="C100" s="14">
-        <v>100</v>
-      </c>
-      <c r="E100" s="6">
-        <v>2128</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B101" t="s">
-        <v>320</v>
-      </c>
-      <c r="C101" s="14">
-        <v>38</v>
-      </c>
-      <c r="E101" s="6">
-        <v>2471</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="8">
-        <v>14262</v>
-      </c>
-      <c r="B102" t="s">
-        <v>321</v>
-      </c>
-      <c r="C102" s="15">
-        <v>100</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E102" s="4">
+      <c r="C103" s="14">
+        <v>100</v>
+      </c>
+      <c r="E103" s="6">
         <v>0</v>
       </c>
-      <c r="F102" s="5"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="8">
-        <v>14263</v>
-      </c>
-      <c r="B103" t="s">
-        <v>322</v>
-      </c>
-      <c r="C103" s="15">
-        <v>100</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E103" s="4">
-        <v>0</v>
-      </c>
-      <c r="F103" s="5"/>
+      <c r="F103" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="B104" t="s">
-        <v>323</v>
+        <v>234</v>
       </c>
       <c r="C104" s="14">
-        <v>67</v>
+        <v>90</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="E104" s="6">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>6</v>
@@ -3488,566 +3464,594 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="B105" t="s">
-        <v>324</v>
+        <v>235</v>
       </c>
       <c r="C105" s="14">
-        <v>100</v>
+        <v>92</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="E105" s="6">
-        <v>1244</v>
+        <v>0</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="B106" t="s">
-        <v>325</v>
+        <v>241</v>
       </c>
       <c r="C106" s="14">
-        <v>100</v>
+        <v>50</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="E106" s="6">
-        <v>1041</v>
+        <v>0</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="11" t="s">
-        <v>160</v>
+      <c r="A107" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="B107" t="s">
-        <v>326</v>
-      </c>
-      <c r="C107" s="14">
-        <v>100</v>
-      </c>
-      <c r="E107" s="3"/>
-      <c r="F107" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="C107" s="15">
+        <v>100</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E107" s="4">
+        <v>0</v>
+      </c>
+      <c r="F107" s="5"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="11" t="s">
-        <v>161</v>
+      <c r="A108" s="8" t="s">
+        <v>203</v>
       </c>
       <c r="B108" t="s">
-        <v>327</v>
-      </c>
-      <c r="C108" s="14">
-        <v>100</v>
-      </c>
-      <c r="E108" s="3"/>
-      <c r="F108" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="C108" s="15">
+        <v>100</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E108" s="4">
+        <v>0</v>
+      </c>
+      <c r="F108" s="5"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="B109" t="s">
-        <v>328</v>
+        <v>247</v>
       </c>
       <c r="C109" s="14">
-        <v>100</v>
+        <v>53</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="E109" s="6">
-        <v>646</v>
+        <v>0</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>138</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>139</v>
+        <v>206</v>
       </c>
       <c r="B110" t="s">
-        <v>329</v>
-      </c>
-      <c r="C110" s="14">
-        <v>100</v>
-      </c>
-      <c r="E110" s="6">
-        <v>522</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>140</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="C110" s="15">
+        <v>100</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E110" s="4">
+        <v>0</v>
+      </c>
+      <c r="F110" s="5"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="11" t="s">
-        <v>43</v>
+      <c r="A111" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="B111" t="s">
-        <v>330</v>
-      </c>
-      <c r="C111" s="14">
-        <v>100</v>
-      </c>
-      <c r="E111" s="6">
-        <v>506</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="C111" s="15">
+        <v>100</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E111" s="4">
+        <v>0</v>
+      </c>
+      <c r="F111" s="5"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="B112" t="s">
-        <v>331</v>
+        <v>250</v>
       </c>
       <c r="C112" s="14">
-        <v>100</v>
-      </c>
-      <c r="E112" s="3"/>
-      <c r="F112" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E112" s="6">
+        <v>0</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B113" t="s">
-        <v>332</v>
+        <v>252</v>
       </c>
       <c r="C113" s="14">
-        <v>100</v>
+        <v>80</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="E113" s="6">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>142</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>163</v>
+        <v>210</v>
       </c>
       <c r="B114" t="s">
-        <v>333</v>
-      </c>
-      <c r="C114" s="14">
-        <v>100</v>
-      </c>
-      <c r="E114" s="3"/>
-      <c r="F114" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="C114" s="15">
+        <v>100</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E114" s="4">
+        <v>0</v>
+      </c>
+      <c r="F114" s="5"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="B115" t="s">
-        <v>334</v>
-      </c>
-      <c r="C115" s="14">
-        <v>100</v>
-      </c>
-      <c r="E115" s="3"/>
-      <c r="F115" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="C115" s="15">
+        <v>100</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E115" s="4">
+        <v>0</v>
+      </c>
+      <c r="F115" s="5"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="18">
-        <v>16055</v>
+      <c r="A116" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="B116" t="s">
-        <v>335</v>
-      </c>
-      <c r="C116" s="14">
-        <v>100</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="C116" s="15">
+        <v>100</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E116" s="4">
+        <v>0</v>
+      </c>
+      <c r="F116" s="5"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="12">
-        <v>16056</v>
+      <c r="A117" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="B117" t="s">
-        <v>336</v>
-      </c>
-      <c r="C117" s="15">
-        <v>100</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E117" s="4">
-        <v>313</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>215</v>
+        <v>259</v>
+      </c>
+      <c r="C117" s="14">
+        <v>96</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E117" s="6">
+        <v>0</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="12">
-        <v>16060</v>
+      <c r="A118" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="B118" t="s">
-        <v>337</v>
-      </c>
-      <c r="C118" s="15">
-        <v>100</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E118" s="4">
-        <v>565</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>216</v>
+        <v>260</v>
+      </c>
+      <c r="C118" s="14">
+        <v>90</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E118" s="6">
+        <v>0</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B119" t="s">
-        <v>338</v>
+        <v>261</v>
       </c>
       <c r="C119" s="14">
-        <v>100</v>
+        <v>82</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E119" s="6">
-        <v>430</v>
+        <v>0</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B120" t="s">
-        <v>339</v>
+        <v>262</v>
       </c>
       <c r="C120" s="14">
-        <v>100</v>
+        <v>51</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E120" s="6">
-        <v>414</v>
+        <v>0</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="11" t="s">
-        <v>32</v>
+      <c r="A121" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="B121" t="s">
-        <v>340</v>
-      </c>
-      <c r="C121" s="14">
-        <v>100</v>
-      </c>
-      <c r="E121" s="6">
-        <v>770</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>33</v>
+        <v>263</v>
+      </c>
+      <c r="C121" s="15">
+        <v>100</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E121" s="4">
+        <v>0</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="12">
-        <v>16085</v>
+      <c r="A122" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="B122" t="s">
-        <v>341</v>
-      </c>
-      <c r="C122" s="14">
-        <v>100</v>
-      </c>
-      <c r="E122" s="6">
-        <v>820</v>
-      </c>
-      <c r="F122" t="s">
-        <v>198</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="C122" s="15">
+        <v>100</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E122" s="4">
+        <v>0</v>
+      </c>
+      <c r="F122" s="5"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
-        <v>19</v>
+        <v>212</v>
       </c>
       <c r="B123" t="s">
-        <v>342</v>
-      </c>
-      <c r="C123" s="14">
-        <v>73</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E123" s="6">
-        <v>1314</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="C123" s="15">
+        <v>100</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E123" s="4">
+        <v>0</v>
+      </c>
+      <c r="F123" s="5"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="12">
-        <v>16101</v>
+      <c r="A124" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="B124" t="s">
-        <v>343</v>
-      </c>
-      <c r="C124" s="15">
-        <v>100</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E124" s="4">
-        <v>516</v>
-      </c>
-      <c r="F124" s="5" t="s">
-        <v>217</v>
+        <v>267</v>
+      </c>
+      <c r="C124" s="14">
+        <v>94</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E124" s="6">
+        <v>0</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="B125" t="s">
-        <v>344</v>
+        <v>268</v>
       </c>
       <c r="C125" s="14">
-        <v>100</v>
+        <v>87</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E125" s="6">
-        <v>1485</v>
+        <v>0</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>145</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
-        <v>146</v>
+        <v>41</v>
       </c>
       <c r="B126" t="s">
-        <v>345</v>
+        <v>269</v>
       </c>
       <c r="C126" s="14">
-        <v>100</v>
+        <v>61</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E126" s="6">
-        <v>1901</v>
+        <v>0</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="11" t="s">
-        <v>147</v>
+      <c r="A127" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="B127" t="s">
-        <v>346</v>
-      </c>
-      <c r="C127" s="14">
-        <v>100</v>
-      </c>
-      <c r="E127" s="6">
-        <v>697</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="C127" s="15">
+        <v>100</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E127" s="4">
+        <v>0</v>
+      </c>
+      <c r="F127" s="5"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="11" t="s">
-        <v>148</v>
+      <c r="A128" s="8" t="s">
+        <v>208</v>
       </c>
       <c r="B128" t="s">
-        <v>347</v>
-      </c>
-      <c r="C128" s="14">
-        <v>100</v>
-      </c>
-      <c r="E128" s="6">
-        <v>1957</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="C128" s="15">
+        <v>100</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E128" s="4">
+        <v>0</v>
+      </c>
+      <c r="F128" s="5"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="13">
-        <v>20014</v>
+      <c r="A129" s="8">
+        <v>14262</v>
       </c>
       <c r="B129" t="s">
-        <v>348</v>
-      </c>
-      <c r="C129" s="14">
-        <v>100</v>
-      </c>
-      <c r="E129" s="6">
-        <v>835</v>
-      </c>
-      <c r="F129" t="s">
-        <v>6</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="C129" s="15">
+        <v>100</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E129" s="4">
+        <v>0</v>
+      </c>
+      <c r="F129" s="5"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="11" t="s">
-        <v>149</v>
+      <c r="A130" s="8">
+        <v>14263</v>
       </c>
       <c r="B130" t="s">
-        <v>349</v>
-      </c>
-      <c r="C130" s="14">
-        <v>77</v>
-      </c>
-      <c r="E130" s="6">
-        <v>835</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="C130" s="15">
+        <v>100</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E130" s="4">
+        <v>0</v>
+      </c>
+      <c r="F130" s="5"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="11" t="s">
-        <v>150</v>
+      <c r="A131" s="7" t="s">
+        <v>218</v>
       </c>
       <c r="B131" t="s">
-        <v>350</v>
+        <v>224</v>
       </c>
       <c r="C131" s="14">
         <v>100</v>
       </c>
-      <c r="E131" s="6">
-        <v>682</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="11" t="s">
-        <v>151</v>
+      <c r="A132" s="7" t="s">
+        <v>219</v>
       </c>
       <c r="B132" t="s">
-        <v>351</v>
+        <v>225</v>
       </c>
       <c r="C132" s="14">
         <v>100</v>
-      </c>
-      <c r="E132" s="6">
-        <v>1180</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B133" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="C133" s="14">
         <v>100</v>
       </c>
-      <c r="E133" s="6">
-        <v>725</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="E133" s="3"/>
+      <c r="F133" s="2"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B134" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="C134" s="14">
         <v>100</v>
       </c>
-      <c r="E134" s="6">
-        <v>894</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="E134" s="3"/>
+      <c r="F134" s="2"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B135" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="C135" s="14">
         <v>100</v>
       </c>
-      <c r="E135" s="6">
-        <v>790</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>155</v>
-      </c>
+      <c r="E135" s="3"/>
+      <c r="F135" s="2"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B136" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="C136" s="14">
         <v>100</v>
       </c>
-      <c r="E136" s="6">
-        <v>603</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="E136" s="3"/>
+      <c r="F136" s="2"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="16" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B137" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="C137" s="14">
         <v>100</v>
       </c>
-      <c r="E137" s="6">
-        <v>530</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>158</v>
-      </c>
+      <c r="E137" s="3"/>
+      <c r="F137" s="2"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" s="11" t="s">
-        <v>159</v>
+      <c r="A138" s="18">
+        <v>16055</v>
       </c>
       <c r="B138" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="C138" s="14">
         <v>100</v>
-      </c>
-      <c r="E138" s="6">
-        <v>226</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -4083,8 +4087,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F61">
-    <sortState ref="A2:E116">
-      <sortCondition ref="A1:A116"/>
+    <sortState ref="A2:F138">
+      <sortCondition descending="1" ref="E1:E138"/>
     </sortState>
   </autoFilter>
   <sortState ref="A2:E209">

--- a/data-raw/NutrientData/nutrientDetails/phytateSources.xlsx
+++ b/data-raw/NutrientData/nutrientDetails/phytateSources.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28620" windowHeight="17160" tabRatio="500"/>
+    <workbookView xWindow="-28880" yWindow="-10140" windowWidth="28620" windowHeight="17160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phytateSources" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">phytateSources!$A$1:$F$61</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="404">
   <si>
     <t>usda_code</t>
   </si>
@@ -1158,12 +1158,96 @@
   </si>
   <si>
     <t>valuefrom</t>
+  </si>
+  <si>
+    <t>20071</t>
+  </si>
+  <si>
+    <t>20073</t>
+  </si>
+  <si>
+    <t>20074</t>
+  </si>
+  <si>
+    <t>20075</t>
+  </si>
+  <si>
+    <t>20076</t>
+  </si>
+  <si>
+    <t>Wheat, hard red spring</t>
+  </si>
+  <si>
+    <t>Wheat, soft red winter</t>
+  </si>
+  <si>
+    <t>Wheat, hard white</t>
+  </si>
+  <si>
+    <t>Wheat, soft white</t>
+  </si>
+  <si>
+    <t>Wheat, durum</t>
+  </si>
+  <si>
+    <t>hard red winter</t>
+  </si>
+  <si>
+    <t>Corn grain, white</t>
+  </si>
+  <si>
+    <t>Corn grain, yellow</t>
+  </si>
+  <si>
+    <t>from cornmeal, yellow</t>
+  </si>
+  <si>
+    <t>Rice, brown, long-grain, raw</t>
+  </si>
+  <si>
+    <t>Rice, brown, medium-grain, raw</t>
+  </si>
+  <si>
+    <t>Rice, white, glutinous, unenriched, uncooked</t>
+  </si>
+  <si>
+    <t>Rice, white, long-grain, parboiled, unenriched, dry</t>
+  </si>
+  <si>
+    <t>Rice, white, medium-grain, raw, unenriched</t>
+  </si>
+  <si>
+    <t>Rice, white, short-grain, raw, unenriched</t>
+  </si>
+  <si>
+    <t>from Rice, white, long-grain, regular, raw, unenriched</t>
+  </si>
+  <si>
+    <t>20314</t>
+  </si>
+  <si>
+    <t>20014</t>
+  </si>
+  <si>
+    <t>20036</t>
+  </si>
+  <si>
+    <t>20040</t>
+  </si>
+  <si>
+    <t>20054</t>
+  </si>
+  <si>
+    <t>20446</t>
+  </si>
+  <si>
+    <t>20450</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1178,13 +1262,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1197,19 +1274,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1246,18 +1323,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1270,7 +1341,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1278,10 +1349,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1290,36 +1358,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1332,77 +1414,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1670,32 +1687,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I146"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:F27"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153:B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="9"/>
+    <col min="1" max="1" width="11" style="7"/>
     <col min="2" max="2" width="54.5" customWidth="1"/>
-    <col min="3" max="3" width="11" style="12"/>
+    <col min="3" max="3" width="11" style="10"/>
     <col min="4" max="4" width="32" customWidth="1"/>
     <col min="5" max="5" width="11" style="4"/>
     <col min="6" max="6" width="49.1640625" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1707,21 +1724,21 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="15" t="s">
         <v>374</v>
       </c>
       <c r="H1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>143</v>
       </c>
       <c r="B2" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="11">
         <v>100</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1731,18 +1748,18 @@
         <v>0</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="18" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="G2" s="15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>142</v>
       </c>
       <c r="B3" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="11">
         <v>100</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1752,18 +1769,18 @@
         <v>0</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="18" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="G3" s="15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B4" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>90</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1775,21 +1792,21 @@
       <c r="F4" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H4" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>95</v>
       </c>
       <c r="B5" t="s">
         <v>194</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>100</v>
       </c>
       <c r="E5" s="4">
@@ -1798,21 +1815,21 @@
       <c r="F5" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H5" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>193</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <v>93</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1824,21 +1841,21 @@
       <c r="F6" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H6" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
         <v>11007</v>
       </c>
       <c r="B7" t="s">
         <v>241</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <v>40</v>
       </c>
       <c r="D7" t="s">
@@ -1850,21 +1867,21 @@
       <c r="F7" t="s">
         <v>344</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H7" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
         <v>11011</v>
       </c>
       <c r="B8" t="s">
         <v>242</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <v>53</v>
       </c>
       <c r="D8" t="s">
@@ -1876,21 +1893,21 @@
       <c r="F8" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H8" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B9" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="10">
         <v>74</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1902,21 +1919,21 @@
       <c r="F9" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H9" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>144</v>
       </c>
       <c r="B10" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="11">
         <v>100</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1926,18 +1943,18 @@
         <v>0</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="18" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="G10" s="15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>196</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="10">
         <v>64</v>
       </c>
       <c r="E11" s="4">
@@ -1946,21 +1963,21 @@
       <c r="F11" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H11" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>126</v>
       </c>
       <c r="B12" t="s">
         <v>310</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="10">
         <v>100</v>
       </c>
       <c r="E12" s="4">
@@ -1969,21 +1986,21 @@
       <c r="F12" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H12" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>288</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="10">
         <v>100</v>
       </c>
       <c r="E13" s="4">
@@ -1992,38 +2009,38 @@
       <c r="F13" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H13" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>137</v>
       </c>
       <c r="B14" t="s">
         <v>290</v>
       </c>
-      <c r="C14" s="12">
-        <v>100</v>
-      </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
+      <c r="C14" s="10">
+        <v>100</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
       <c r="H14" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>289</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="10">
         <v>100</v>
       </c>
       <c r="E15" s="4">
@@ -2032,21 +2049,21 @@
       <c r="F15" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H15" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B16" t="s">
         <v>270</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="10">
         <v>97</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -2058,38 +2075,38 @@
       <c r="F16" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H16" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>138</v>
       </c>
       <c r="B17" t="s">
         <v>291</v>
       </c>
-      <c r="C17" s="12">
-        <v>100</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27"/>
+      <c r="C17" s="10">
+        <v>100</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
       <c r="H17" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B18" t="s">
         <v>292</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="10">
         <v>100</v>
       </c>
       <c r="E18" s="4">
@@ -2098,21 +2115,21 @@
       <c r="F18" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H18" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>122</v>
       </c>
       <c r="B19" t="s">
         <v>293</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="10">
         <v>100</v>
       </c>
       <c r="E19" s="4">
@@ -2121,21 +2138,21 @@
       <c r="F19" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H19" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B20" t="s">
         <v>294</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="10">
         <v>100</v>
       </c>
       <c r="E20" s="4">
@@ -2144,7 +2161,7 @@
       <c r="F20" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H20" t="s">
@@ -2154,31 +2171,31 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
         <v>139</v>
       </c>
       <c r="B21" t="s">
         <v>295</v>
       </c>
-      <c r="C21" s="12">
-        <v>100</v>
-      </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
+      <c r="C21" s="10">
+        <v>100</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
       <c r="H21" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>123</v>
       </c>
       <c r="B22" t="s">
         <v>296</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="10">
         <v>100</v>
       </c>
       <c r="E22" s="4">
@@ -2187,21 +2204,21 @@
       <c r="F22" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H22" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
         <v>11052</v>
       </c>
       <c r="B23" t="s">
         <v>244</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="10">
         <v>88</v>
       </c>
       <c r="D23" t="s">
@@ -2213,55 +2230,55 @@
       <c r="F23" t="s">
         <v>355</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H23" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
         <v>141</v>
       </c>
       <c r="B24" t="s">
         <v>298</v>
       </c>
-      <c r="C24" s="12">
-        <v>100</v>
-      </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
+      <c r="C24" s="10">
+        <v>100</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="24"/>
       <c r="H24" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
         <v>140</v>
       </c>
       <c r="B25" t="s">
         <v>297</v>
       </c>
-      <c r="C25" s="12">
-        <v>100</v>
-      </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
+      <c r="C25" s="10">
+        <v>100</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
       <c r="H25" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
         <v>119</v>
       </c>
       <c r="B26" t="s">
         <v>284</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="10">
         <v>38</v>
       </c>
       <c r="E26" s="4">
@@ -2270,44 +2287,44 @@
       <c r="F26" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H26" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+    <row r="27" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C27" s="29">
         <v>67</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="17">
         <v>190</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="G27" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="H27" s="31" t="s">
+      <c r="G27" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="H27" s="28" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B28" t="s">
         <v>197</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="10">
         <v>95</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -2319,21 +2336,21 @@
       <c r="F28" t="s">
         <v>334</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H28" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
         <v>147</v>
       </c>
       <c r="B29" t="s">
         <v>245</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="10">
         <v>61</v>
       </c>
       <c r="D29" t="s">
@@ -2345,21 +2362,21 @@
       <c r="F29" t="s">
         <v>334</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H29" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>127</v>
       </c>
       <c r="B30" t="s">
         <v>311</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="10">
         <v>100</v>
       </c>
       <c r="E30" s="4">
@@ -2368,21 +2385,21 @@
       <c r="F30" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H30" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="9">
         <v>11109</v>
       </c>
       <c r="B31" t="s">
         <v>246</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="10">
         <v>80</v>
       </c>
       <c r="D31" t="s">
@@ -2394,35 +2411,35 @@
       <c r="F31" t="s">
         <v>334</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H31" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="16">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="13">
         <v>16055</v>
       </c>
       <c r="B32" t="s">
         <v>299</v>
       </c>
-      <c r="C32" s="12">
-        <v>100</v>
-      </c>
-      <c r="E32" s="28"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="27"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
+      <c r="C32" s="10">
+        <v>100</v>
+      </c>
+      <c r="E32" s="25"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="24"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="9">
         <v>11124</v>
       </c>
       <c r="B33" t="s">
         <v>247</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="10">
         <v>89</v>
       </c>
       <c r="D33" t="s">
@@ -2434,21 +2451,21 @@
       <c r="F33" t="s">
         <v>153</v>
       </c>
-      <c r="G33" s="18" t="s">
+      <c r="G33" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H33" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B34" t="s">
         <v>248</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="10">
         <v>84</v>
       </c>
       <c r="E34" s="4">
@@ -2457,21 +2474,21 @@
       <c r="F34" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="G34" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H34" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
         <v>146</v>
       </c>
       <c r="B35" t="s">
         <v>249</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="10">
         <v>39</v>
       </c>
       <c r="D35" t="s">
@@ -2483,21 +2500,21 @@
       <c r="F35" t="s">
         <v>334</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G35" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H35" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B36" t="s">
         <v>198</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="10">
         <v>90</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -2509,21 +2526,21 @@
       <c r="F36" t="s">
         <v>334</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H36" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
         <v>98</v>
       </c>
       <c r="B37" t="s">
         <v>199</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="10">
         <v>92</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -2535,21 +2552,21 @@
       <c r="F37" t="s">
         <v>334</v>
       </c>
-      <c r="G37" s="18" t="s">
+      <c r="G37" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H37" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="8">
         <v>16056</v>
       </c>
       <c r="B38" t="s">
         <v>300</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="11">
         <v>100</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -2561,21 +2578,21 @@
       <c r="F38" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="G38" s="18" t="s">
+      <c r="G38" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H38" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="9">
         <v>14262</v>
       </c>
       <c r="B39" t="s">
         <v>285</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="11">
         <v>100</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -2585,18 +2602,18 @@
         <v>0</v>
       </c>
       <c r="F39" s="3"/>
-      <c r="G39" s="18" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
+      <c r="G39" s="15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="9">
         <v>14263</v>
       </c>
       <c r="B40" t="s">
         <v>286</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="11">
         <v>100</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -2606,18 +2623,18 @@
         <v>0</v>
       </c>
       <c r="F40" s="3"/>
-      <c r="G40" s="18" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="G40" s="15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
         <v>125</v>
       </c>
       <c r="B41" t="s">
         <v>309</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="10">
         <v>100</v>
       </c>
       <c r="E41" s="4">
@@ -2626,21 +2643,21 @@
       <c r="F41" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G41" s="18" t="s">
+      <c r="G41" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H41" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="9">
         <v>20014</v>
       </c>
       <c r="B42" t="s">
         <v>312</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="10">
         <v>100</v>
       </c>
       <c r="E42" s="4">
@@ -2649,21 +2666,21 @@
       <c r="F42" t="s">
         <v>334</v>
       </c>
-      <c r="G42" s="18" t="s">
+      <c r="G42" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H42" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
         <v>128</v>
       </c>
       <c r="B43" t="s">
         <v>313</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="10">
         <v>77</v>
       </c>
       <c r="E43" s="4">
@@ -2672,21 +2689,21 @@
       <c r="F43" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G43" s="18" t="s">
+      <c r="G43" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H43" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="10">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="8">
         <v>16060</v>
       </c>
       <c r="B44" t="s">
         <v>301</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="11">
         <v>100</v>
       </c>
       <c r="D44" s="3" t="s">
@@ -2695,24 +2712,24 @@
       <c r="E44" s="2">
         <v>565</v>
       </c>
-      <c r="F44" s="21" t="s">
+      <c r="F44" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="G44" s="18" t="s">
+      <c r="G44" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H44" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B45" t="s">
         <v>200</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="10">
         <v>92</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -2724,21 +2741,21 @@
       <c r="F45" t="s">
         <v>334</v>
       </c>
-      <c r="G45" s="18" t="s">
+      <c r="G45" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H45" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="9">
         <v>11205</v>
       </c>
       <c r="B46" t="s">
         <v>250</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="10">
         <v>97</v>
       </c>
       <c r="D46" t="s">
@@ -2750,21 +2767,21 @@
       <c r="F46" t="s">
         <v>334</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="G46" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H46" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B47" t="s">
         <v>201</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="10">
         <v>98</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -2776,21 +2793,21 @@
       <c r="F47" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="G47" s="18" t="s">
+      <c r="G47" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H47" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B48" t="s">
         <v>239</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="10">
         <v>92</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -2802,21 +2819,21 @@
       <c r="F48" t="s">
         <v>334</v>
       </c>
-      <c r="G48" s="18" t="s">
+      <c r="G48" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H48" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="11">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="9">
         <v>11209</v>
       </c>
       <c r="B49" t="s">
         <v>251</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="10">
         <v>81</v>
       </c>
       <c r="D49" t="s">
@@ -2825,10 +2842,10 @@
       <c r="E49" s="4">
         <v>49</v>
       </c>
-      <c r="F49" s="22" t="s">
+      <c r="F49" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G49" s="18" t="s">
+      <c r="G49" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H49" t="s">
@@ -2836,13 +2853,13 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B50" t="s">
         <v>203</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="10">
         <v>96</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -2851,10 +2868,10 @@
       <c r="E50" s="4">
         <v>101</v>
       </c>
-      <c r="F50" s="23" t="s">
+      <c r="F50" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="G50" s="18" t="s">
+      <c r="G50" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H50" t="s">
@@ -2862,13 +2879,13 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B51" t="s">
         <v>202</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="10">
         <v>99</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -2880,7 +2897,7 @@
       <c r="F51" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G51" s="18" t="s">
+      <c r="G51" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H51" t="s">
@@ -2888,13 +2905,13 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="11">
+      <c r="A52" s="9">
         <v>11215</v>
       </c>
       <c r="B52" t="s">
         <v>252</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="10">
         <v>87</v>
       </c>
       <c r="D52" t="s">
@@ -2906,7 +2923,7 @@
       <c r="F52" t="s">
         <v>334</v>
       </c>
-      <c r="G52" s="18" t="s">
+      <c r="G52" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H52" t="s">
@@ -2914,13 +2931,13 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B53" t="s">
         <v>204</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="10">
         <v>100</v>
       </c>
       <c r="E53" s="4">
@@ -2929,7 +2946,7 @@
       <c r="F53" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G53" s="18" t="s">
+      <c r="G53" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H53" t="s">
@@ -2937,13 +2954,13 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="9" t="s">
         <v>170</v>
       </c>
       <c r="B54" t="s">
         <v>208</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C54" s="11">
         <v>100</v>
       </c>
       <c r="D54" s="3" t="s">
@@ -2953,18 +2970,18 @@
         <v>0</v>
       </c>
       <c r="F54" s="3"/>
-      <c r="G54" s="18" t="s">
+      <c r="G54" s="15" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="9" t="s">
         <v>171</v>
       </c>
       <c r="B55" t="s">
         <v>238</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C55" s="11">
         <v>100</v>
       </c>
       <c r="D55" s="3" t="s">
@@ -2974,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="3"/>
-      <c r="G55" s="18" t="s">
+      <c r="G55" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H55" t="s">
@@ -2982,13 +2999,13 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="9" t="s">
         <v>172</v>
       </c>
       <c r="B56" t="s">
         <v>206</v>
       </c>
-      <c r="C56" s="13">
+      <c r="C56" s="11">
         <v>100</v>
       </c>
       <c r="D56" s="3" t="s">
@@ -2998,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="3"/>
-      <c r="G56" s="18" t="s">
+      <c r="G56" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H56" t="s">
@@ -3006,13 +3023,13 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="7" t="s">
         <v>100</v>
       </c>
       <c r="B57" t="s">
         <v>205</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="10">
         <v>50</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -3024,7 +3041,7 @@
       <c r="F57" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G57" s="18" t="s">
+      <c r="G57" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H57" t="s">
@@ -3032,13 +3049,13 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B58" t="s">
         <v>207</v>
       </c>
-      <c r="C58" s="12">
+      <c r="C58" s="10">
         <v>96</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -3050,7 +3067,7 @@
       <c r="F58" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G58" s="18" t="s">
+      <c r="G58" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H58" t="s">
@@ -3058,13 +3075,13 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B59" t="s">
         <v>209</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="10">
         <v>78</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -3076,7 +3093,7 @@
       <c r="F59" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G59" s="18" t="s">
+      <c r="G59" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H59" t="s">
@@ -3084,13 +3101,13 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="7" t="s">
         <v>79</v>
       </c>
       <c r="B60" t="s">
         <v>210</v>
       </c>
-      <c r="C60" s="12">
+      <c r="C60" s="10">
         <v>76</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -3102,7 +3119,7 @@
       <c r="F60" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G60" s="18" t="s">
+      <c r="G60" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H60" t="s">
@@ -3110,13 +3127,13 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="11">
+      <c r="A61" s="9">
         <v>11246</v>
       </c>
       <c r="B61" t="s">
         <v>253</v>
       </c>
-      <c r="C61" s="12">
+      <c r="C61" s="10">
         <v>44</v>
       </c>
       <c r="D61" t="s">
@@ -3125,10 +3142,10 @@
       <c r="E61" s="4">
         <v>29</v>
       </c>
-      <c r="F61" s="22" t="s">
+      <c r="F61" s="19" t="s">
         <v>338</v>
       </c>
-      <c r="G61" s="18" t="s">
+      <c r="G61" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H61" t="s">
@@ -3136,13 +3153,13 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="7" t="s">
         <v>173</v>
       </c>
       <c r="B62" t="s">
         <v>212</v>
       </c>
-      <c r="C62" s="13">
+      <c r="C62" s="11">
         <v>100</v>
       </c>
       <c r="D62" s="3" t="s">
@@ -3152,18 +3169,18 @@
         <v>0</v>
       </c>
       <c r="F62" s="3"/>
-      <c r="G62" s="18" t="s">
+      <c r="G62" s="15" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="9" t="s">
         <v>174</v>
       </c>
       <c r="B63" t="s">
         <v>213</v>
       </c>
-      <c r="C63" s="13">
+      <c r="C63" s="11">
         <v>100</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -3173,18 +3190,18 @@
         <v>0</v>
       </c>
       <c r="F63" s="3"/>
-      <c r="G63" s="18" t="s">
+      <c r="G63" s="15" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="7" t="s">
         <v>102</v>
       </c>
       <c r="B64" t="s">
         <v>211</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64" s="10">
         <v>53</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -3196,7 +3213,7 @@
       <c r="F64" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G64" s="18" t="s">
+      <c r="G64" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H64" t="s">
@@ -3204,22 +3221,22 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B65" t="s">
         <v>302</v>
       </c>
-      <c r="C65" s="12">
-        <v>100</v>
-      </c>
-      <c r="E65" s="30">
+      <c r="C65" s="10">
+        <v>100</v>
+      </c>
+      <c r="E65" s="27">
         <v>431</v>
       </c>
-      <c r="F65" s="34" t="s">
+      <c r="F65" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="G65" s="18" t="s">
+      <c r="G65" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H65" t="s">
@@ -3227,13 +3244,13 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="11">
+      <c r="A66" s="9">
         <v>11257</v>
       </c>
       <c r="B66" t="s">
         <v>254</v>
       </c>
-      <c r="C66" s="12">
+      <c r="C66" s="10">
         <v>80</v>
       </c>
       <c r="D66" t="s">
@@ -3245,7 +3262,7 @@
       <c r="F66" t="s">
         <v>334</v>
       </c>
-      <c r="G66" s="18" t="s">
+      <c r="G66" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H66" t="s">
@@ -3253,13 +3270,13 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B67" t="s">
         <v>303</v>
       </c>
-      <c r="C67" s="12">
+      <c r="C67" s="10">
         <v>100</v>
       </c>
       <c r="E67" s="4">
@@ -3268,7 +3285,7 @@
       <c r="F67" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="G67" s="18" t="s">
+      <c r="G67" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H67" t="s">
@@ -3276,13 +3293,13 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="7" t="s">
         <v>104</v>
       </c>
       <c r="B68" t="s">
         <v>214</v>
       </c>
-      <c r="C68" s="12">
+      <c r="C68" s="10">
         <v>84</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -3294,7 +3311,7 @@
       <c r="F68" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G68" s="18" t="s">
+      <c r="G68" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H68" t="s">
@@ -3302,22 +3319,22 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B69" t="s">
         <v>304</v>
       </c>
-      <c r="C69" s="12">
+      <c r="C69" s="10">
         <v>100</v>
       </c>
       <c r="E69" s="4">
         <v>770</v>
       </c>
-      <c r="F69" s="23" t="s">
+      <c r="F69" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="G69" s="18" t="s">
+      <c r="G69" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H69" t="s">
@@ -3325,13 +3342,13 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="9" t="s">
         <v>175</v>
       </c>
       <c r="B70" t="s">
         <v>240</v>
       </c>
-      <c r="C70" s="13">
+      <c r="C70" s="11">
         <v>100</v>
       </c>
       <c r="D70" s="3" t="s">
@@ -3341,18 +3358,18 @@
         <v>0</v>
       </c>
       <c r="F70" s="3"/>
-      <c r="G70" s="18" t="s">
+      <c r="G70" s="15" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B71" t="s">
         <v>215</v>
       </c>
-      <c r="C71" s="12">
+      <c r="C71" s="10">
         <v>51</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -3364,7 +3381,7 @@
       <c r="F71" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G71" s="18" t="s">
+      <c r="G71" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H71" t="s">
@@ -3372,13 +3389,13 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="7" t="s">
         <v>129</v>
       </c>
       <c r="B72" t="s">
         <v>314</v>
       </c>
-      <c r="C72" s="12">
+      <c r="C72" s="10">
         <v>100</v>
       </c>
       <c r="E72" s="4">
@@ -3387,7 +3404,7 @@
       <c r="F72" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G72" s="18" t="s">
+      <c r="G72" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H72" t="s">
@@ -3395,22 +3412,22 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B73" t="s">
         <v>243</v>
       </c>
-      <c r="C73" s="12">
+      <c r="C73" s="10">
         <v>100</v>
       </c>
       <c r="E73" s="4">
         <v>60</v>
       </c>
-      <c r="F73" s="23" t="s">
+      <c r="F73" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="G73" s="24" t="s">
+      <c r="G73" s="21" t="s">
         <v>323</v>
       </c>
       <c r="H73" t="s">
@@ -3418,13 +3435,13 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="11">
+      <c r="A74" s="9">
         <v>11265</v>
       </c>
       <c r="B74" t="s">
         <v>255</v>
       </c>
-      <c r="C74" s="12">
+      <c r="C74" s="10">
         <v>97</v>
       </c>
       <c r="D74" t="s">
@@ -3433,10 +3450,10 @@
       <c r="E74" s="4">
         <v>63</v>
       </c>
-      <c r="F74" s="22" t="s">
+      <c r="F74" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="G74" s="24" t="s">
+      <c r="G74" s="21" t="s">
         <v>323</v>
       </c>
       <c r="H74" t="s">
@@ -3444,13 +3461,13 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B75" t="s">
         <v>275</v>
       </c>
-      <c r="C75" s="12">
+      <c r="C75" s="10">
         <v>40</v>
       </c>
       <c r="D75" s="1" t="s">
@@ -3462,7 +3479,7 @@
       <c r="F75" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G75" s="18" t="s">
+      <c r="G75" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H75" t="s">
@@ -3470,13 +3487,13 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="7" t="s">
         <v>87</v>
       </c>
       <c r="B76" t="s">
         <v>276</v>
       </c>
-      <c r="C76" s="12">
+      <c r="C76" s="10">
         <v>51</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -3488,7 +3505,7 @@
       <c r="F76" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G76" s="18" t="s">
+      <c r="G76" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H76" t="s">
@@ -3496,13 +3513,13 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B77" t="s">
         <v>277</v>
       </c>
-      <c r="C77" s="12">
+      <c r="C77" s="10">
         <v>25</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -3514,7 +3531,7 @@
       <c r="F77" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G77" s="18" t="s">
+      <c r="G77" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H77" t="s">
@@ -3522,13 +3539,13 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="7" t="s">
         <v>108</v>
       </c>
       <c r="B78" t="s">
         <v>278</v>
       </c>
-      <c r="C78" s="12">
+      <c r="C78" s="10">
         <v>74</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -3540,7 +3557,7 @@
       <c r="F78" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G78" s="18" t="s">
+      <c r="G78" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H78" t="s">
@@ -3548,13 +3565,13 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="7" t="s">
         <v>110</v>
       </c>
       <c r="B79" t="s">
         <v>279</v>
       </c>
-      <c r="C79" s="12">
+      <c r="C79" s="10">
         <v>52</v>
       </c>
       <c r="D79" s="1" t="s">
@@ -3566,7 +3583,7 @@
       <c r="F79" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G79" s="18" t="s">
+      <c r="G79" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H79" t="s">
@@ -3574,13 +3591,13 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B80" t="s">
         <v>280</v>
       </c>
-      <c r="C80" s="12">
+      <c r="C80" s="10">
         <v>41</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -3592,7 +3609,7 @@
       <c r="F80" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G80" s="18" t="s">
+      <c r="G80" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H80" t="s">
@@ -3600,13 +3617,13 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="7" t="s">
         <v>114</v>
       </c>
       <c r="B81" t="s">
         <v>281</v>
       </c>
-      <c r="C81" s="12">
+      <c r="C81" s="10">
         <v>53</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -3618,7 +3635,7 @@
       <c r="F81" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G81" s="18" t="s">
+      <c r="G81" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H81" t="s">
@@ -3626,13 +3643,13 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="7" t="s">
         <v>116</v>
       </c>
       <c r="B82" t="s">
         <v>282</v>
       </c>
-      <c r="C82" s="12">
+      <c r="C82" s="10">
         <v>45</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -3644,7 +3661,7 @@
       <c r="F82" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G82" s="18" t="s">
+      <c r="G82" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H82" t="s">
@@ -3652,13 +3669,13 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="7" t="s">
         <v>131</v>
       </c>
       <c r="B83" t="s">
         <v>316</v>
       </c>
-      <c r="C83" s="12">
+      <c r="C83" s="10">
         <v>100</v>
       </c>
       <c r="E83" s="4">
@@ -3667,7 +3684,7 @@
       <c r="F83" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G83" s="18" t="s">
+      <c r="G83" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H83" t="s">
@@ -3675,47 +3692,47 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="7" t="s">
         <v>182</v>
       </c>
       <c r="B84" t="s">
         <v>188</v>
       </c>
-      <c r="C84" s="12">
-        <v>100</v>
-      </c>
-      <c r="E84" s="19">
+      <c r="C84" s="10">
+        <v>100</v>
+      </c>
+      <c r="E84" s="16">
         <v>0</v>
       </c>
-      <c r="G84" s="18" t="s">
+      <c r="G84" s="15" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="7" t="s">
         <v>183</v>
       </c>
       <c r="B85" t="s">
         <v>189</v>
       </c>
-      <c r="C85" s="12">
-        <v>100</v>
-      </c>
-      <c r="E85" s="19">
+      <c r="C85" s="10">
+        <v>100</v>
+      </c>
+      <c r="E85" s="16">
         <v>0</v>
       </c>
-      <c r="G85" s="18" t="s">
+      <c r="G85" s="15" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="11">
+      <c r="A86" s="9">
         <v>11278</v>
       </c>
       <c r="B86" t="s">
         <v>256</v>
       </c>
-      <c r="C86" s="12">
+      <c r="C86" s="10">
         <v>86</v>
       </c>
       <c r="D86" t="s">
@@ -3727,7 +3744,7 @@
       <c r="F86" t="s">
         <v>361</v>
       </c>
-      <c r="G86" s="18" t="s">
+      <c r="G86" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H86" t="s">
@@ -3735,13 +3752,13 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B87" t="s">
         <v>216</v>
       </c>
-      <c r="C87" s="12">
+      <c r="C87" s="10">
         <v>80</v>
       </c>
       <c r="D87" s="1" t="s">
@@ -3753,7 +3770,7 @@
       <c r="F87" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G87" s="18" t="s">
+      <c r="G87" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H87" t="s">
@@ -3761,13 +3778,13 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="11">
+      <c r="A88" s="9">
         <v>11282</v>
       </c>
       <c r="B88" t="s">
         <v>257</v>
       </c>
-      <c r="C88" s="12">
+      <c r="C88" s="10">
         <v>90</v>
       </c>
       <c r="D88" t="s">
@@ -3779,7 +3796,7 @@
       <c r="F88" t="s">
         <v>362</v>
       </c>
-      <c r="G88" s="18" t="s">
+      <c r="G88" s="15" t="s">
         <v>329</v>
       </c>
       <c r="H88" t="s">
@@ -3787,13 +3804,13 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="7" t="s">
         <v>176</v>
       </c>
       <c r="B89" t="s">
         <v>219</v>
       </c>
-      <c r="C89" s="13">
+      <c r="C89" s="11">
         <v>100</v>
       </c>
       <c r="D89" s="3" t="s">
@@ -3803,18 +3820,18 @@
         <v>0</v>
       </c>
       <c r="F89" s="3"/>
-      <c r="G89" s="18" t="s">
+      <c r="G89" s="15" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="7" t="s">
         <v>177</v>
       </c>
       <c r="B90" t="s">
         <v>218</v>
       </c>
-      <c r="C90" s="13">
+      <c r="C90" s="11">
         <v>100</v>
       </c>
       <c r="D90" s="3" t="s">
@@ -3824,18 +3841,18 @@
         <v>0</v>
       </c>
       <c r="F90" s="3"/>
-      <c r="G90" s="18" t="s">
+      <c r="G90" s="15" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B91" t="s">
         <v>217</v>
       </c>
-      <c r="C91" s="12">
+      <c r="C91" s="10">
         <v>73</v>
       </c>
       <c r="D91" s="1" t="s">
@@ -3847,7 +3864,7 @@
       <c r="F91" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G91" s="18" t="s">
+      <c r="G91" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H91" t="s">
@@ -3855,13 +3872,13 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="9" t="s">
+      <c r="A92" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B92" t="s">
         <v>222</v>
       </c>
-      <c r="C92" s="12">
+      <c r="C92" s="10">
         <v>62</v>
       </c>
       <c r="D92" s="1" t="s">
@@ -3873,7 +3890,7 @@
       <c r="F92" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G92" s="18" t="s">
+      <c r="G92" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H92" t="s">
@@ -3881,13 +3898,13 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B93" t="s">
         <v>223</v>
       </c>
-      <c r="C93" s="12">
+      <c r="C93" s="10">
         <v>96</v>
       </c>
       <c r="D93" s="1" t="s">
@@ -3899,7 +3916,7 @@
       <c r="F93" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G93" s="18" t="s">
+      <c r="G93" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H93" t="s">
@@ -3907,13 +3924,13 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B94" t="s">
         <v>306</v>
       </c>
-      <c r="C94" s="12">
+      <c r="C94" s="10">
         <v>73</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -3925,7 +3942,7 @@
       <c r="F94" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G94" s="18" t="s">
+      <c r="G94" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H94" t="s">
@@ -3933,13 +3950,13 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="9" t="s">
+      <c r="A95" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B95" t="s">
         <v>224</v>
       </c>
-      <c r="C95" s="12">
+      <c r="C95" s="10">
         <v>90</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -3951,7 +3968,7 @@
       <c r="F95" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G95" s="18" t="s">
+      <c r="G95" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H95" t="s">
@@ -3959,13 +3976,13 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="9" t="s">
+      <c r="A96" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B96" t="s">
         <v>258</v>
       </c>
-      <c r="C96" s="12">
+      <c r="C96" s="10">
         <v>38</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -3977,7 +3994,7 @@
       <c r="F96" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="G96" s="18" t="s">
+      <c r="G96" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H96" t="s">
@@ -3985,22 +4002,22 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="10">
+      <c r="A97" s="8">
         <v>16085</v>
       </c>
       <c r="B97" t="s">
         <v>305</v>
       </c>
-      <c r="C97" s="12">
+      <c r="C97" s="10">
         <v>100</v>
       </c>
       <c r="E97" s="4">
         <v>820</v>
       </c>
-      <c r="F97" s="22" t="s">
+      <c r="F97" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="G97" s="18" t="s">
+      <c r="G97" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H97" t="s">
@@ -4008,13 +4025,13 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="11">
+      <c r="A98" s="9">
         <v>11670</v>
       </c>
       <c r="B98" t="s">
         <v>267</v>
       </c>
-      <c r="C98" s="12">
+      <c r="C98" s="10">
         <v>73</v>
       </c>
       <c r="D98" t="s">
@@ -4026,7 +4043,7 @@
       <c r="F98" t="s">
         <v>365</v>
       </c>
-      <c r="G98" s="18" t="s">
+      <c r="G98" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H98" t="s">
@@ -4034,13 +4051,13 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B99" t="s">
         <v>225</v>
       </c>
-      <c r="C99" s="12">
+      <c r="C99" s="10">
         <v>82</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -4052,7 +4069,7 @@
       <c r="F99" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G99" s="18" t="s">
+      <c r="G99" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H99" t="s">
@@ -4060,13 +4077,13 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="10">
+      <c r="A100" s="8">
         <v>16101</v>
       </c>
       <c r="B100" t="s">
         <v>307</v>
       </c>
-      <c r="C100" s="13">
+      <c r="C100" s="11">
         <v>100</v>
       </c>
       <c r="D100" s="3" t="s">
@@ -4078,7 +4095,7 @@
       <c r="F100" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="G100" s="18" t="s">
+      <c r="G100" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H100" t="s">
@@ -4086,13 +4103,13 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="9" t="s">
         <v>178</v>
       </c>
       <c r="B101" t="s">
         <v>228</v>
       </c>
-      <c r="C101" s="13">
+      <c r="C101" s="11">
         <v>100</v>
       </c>
       <c r="D101" s="3" t="s">
@@ -4102,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="F101" s="3"/>
-      <c r="G101" s="18" t="s">
+      <c r="G101" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H101" t="s">
@@ -4110,13 +4127,13 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="9" t="s">
+      <c r="A102" s="7" t="s">
         <v>179</v>
       </c>
       <c r="B102" t="s">
         <v>229</v>
       </c>
-      <c r="C102" s="13">
+      <c r="C102" s="11">
         <v>100</v>
       </c>
       <c r="D102" s="3" t="s">
@@ -4126,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="F102" s="3"/>
-      <c r="G102" s="18" t="s">
+      <c r="G102" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H102" t="s">
@@ -4134,13 +4151,13 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="6" t="s">
+      <c r="A103" s="9" t="s">
         <v>181</v>
       </c>
       <c r="B103" t="s">
         <v>227</v>
       </c>
-      <c r="C103" s="13">
+      <c r="C103" s="11">
         <v>100</v>
       </c>
       <c r="D103" s="3" t="s">
@@ -4152,7 +4169,7 @@
       <c r="F103" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="G103" s="18" t="s">
+      <c r="G103" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H103" t="s">
@@ -4160,13 +4177,13 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="9" t="s">
+      <c r="A104" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B104" t="s">
         <v>226</v>
       </c>
-      <c r="C104" s="12">
+      <c r="C104" s="10">
         <v>51</v>
       </c>
       <c r="D104" s="1" t="s">
@@ -4178,7 +4195,7 @@
       <c r="F104" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G104" s="18" t="s">
+      <c r="G104" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H104" t="s">
@@ -4186,13 +4203,13 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B105" t="s">
         <v>230</v>
       </c>
-      <c r="C105" s="12">
+      <c r="C105" s="10">
         <v>65</v>
       </c>
       <c r="E105" s="4">
@@ -4201,7 +4218,7 @@
       <c r="F105" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G105" s="18" t="s">
+      <c r="G105" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H105" t="s">
@@ -4209,13 +4226,13 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="9" t="s">
+      <c r="A106" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B106" t="s">
         <v>232</v>
       </c>
-      <c r="C106" s="12">
+      <c r="C106" s="10">
         <v>87</v>
       </c>
       <c r="D106" s="1" t="s">
@@ -4227,7 +4244,7 @@
       <c r="F106" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G106" s="18" t="s">
+      <c r="G106" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H106" t="s">
@@ -4235,13 +4252,13 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="9" t="s">
+      <c r="A107" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B107" t="s">
         <v>231</v>
       </c>
-      <c r="C107" s="12">
+      <c r="C107" s="10">
         <v>94</v>
       </c>
       <c r="D107" s="1" t="s">
@@ -4253,7 +4270,7 @@
       <c r="F107" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G107" s="18" t="s">
+      <c r="G107" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H107" t="s">
@@ -4261,13 +4278,13 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="9" t="s">
+      <c r="A108" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B108" t="s">
         <v>259</v>
       </c>
-      <c r="C108" s="12">
+      <c r="C108" s="10">
         <v>75</v>
       </c>
       <c r="E108" s="4">
@@ -4276,7 +4293,7 @@
       <c r="F108" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="G108" s="18" t="s">
+      <c r="G108" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H108" t="s">
@@ -4284,13 +4301,13 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="11">
+      <c r="A109" s="9">
         <v>11422</v>
       </c>
       <c r="B109" t="s">
         <v>260</v>
       </c>
-      <c r="C109" s="12">
+      <c r="C109" s="10">
         <v>70</v>
       </c>
       <c r="D109" t="s">
@@ -4302,7 +4319,7 @@
       <c r="F109" t="s">
         <v>369</v>
       </c>
-      <c r="G109" s="18" t="s">
+      <c r="G109" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H109" t="s">
@@ -4310,13 +4327,13 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="9" t="s">
+      <c r="A110" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B110" t="s">
         <v>233</v>
       </c>
-      <c r="C110" s="12">
+      <c r="C110" s="10">
         <v>61</v>
       </c>
       <c r="D110" s="1" t="s">
@@ -4328,7 +4345,7 @@
       <c r="F110" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G110" s="18" t="s">
+      <c r="G110" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H110" t="s">
@@ -4336,13 +4353,13 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="9" t="s">
+      <c r="A111" s="7" t="s">
         <v>130</v>
       </c>
       <c r="B111" t="s">
         <v>315</v>
       </c>
-      <c r="C111" s="12">
+      <c r="C111" s="10">
         <v>100</v>
       </c>
       <c r="E111" s="4">
@@ -4351,7 +4368,7 @@
       <c r="F111" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G111" s="18" t="s">
+      <c r="G111" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H111" t="s">
@@ -4359,13 +4376,13 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="9" t="s">
+      <c r="A112" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B112" t="s">
         <v>234</v>
       </c>
-      <c r="C112" s="12">
+      <c r="C112" s="10">
         <v>100</v>
       </c>
       <c r="E112" s="4">
@@ -4374,7 +4391,7 @@
       <c r="F112" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="G112" s="18" t="s">
+      <c r="G112" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H112" t="s">
@@ -4382,13 +4399,13 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="9" t="s">
+      <c r="A113" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B113" t="s">
         <v>235</v>
       </c>
-      <c r="C113" s="12">
+      <c r="C113" s="10">
         <v>96</v>
       </c>
       <c r="D113" s="1" t="s">
@@ -4400,7 +4417,7 @@
       <c r="F113" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G113" s="18" t="s">
+      <c r="G113" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H113" t="s">
@@ -4408,13 +4425,13 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="9" t="s">
+      <c r="A114" s="7" t="s">
         <v>136</v>
       </c>
       <c r="B114" t="s">
         <v>321</v>
       </c>
-      <c r="C114" s="12">
+      <c r="C114" s="10">
         <v>100</v>
       </c>
       <c r="E114" s="4">
@@ -4423,7 +4440,7 @@
       <c r="F114" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G114" s="18" t="s">
+      <c r="G114" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H114" t="s">
@@ -4431,13 +4448,13 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="9" t="s">
+      <c r="A115" s="7" t="s">
         <v>132</v>
       </c>
       <c r="B115" t="s">
         <v>317</v>
       </c>
-      <c r="C115" s="12">
+      <c r="C115" s="10">
         <v>100</v>
       </c>
       <c r="E115" s="4">
@@ -4446,7 +4463,7 @@
       <c r="F115" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G115" s="18" t="s">
+      <c r="G115" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H115" t="s">
@@ -4454,13 +4471,13 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="9" t="s">
+      <c r="A116" s="7" t="s">
         <v>118</v>
       </c>
       <c r="B116" t="s">
         <v>283</v>
       </c>
-      <c r="C116" s="12">
+      <c r="C116" s="10">
         <v>100</v>
       </c>
       <c r="E116" s="4">
@@ -4469,7 +4486,7 @@
       <c r="F116" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G116" s="18" t="s">
+      <c r="G116" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H116" t="s">
@@ -4477,13 +4494,13 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="9" t="s">
+      <c r="A117" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B117" t="s">
         <v>271</v>
       </c>
-      <c r="C117" s="12">
+      <c r="C117" s="10">
         <v>100</v>
       </c>
       <c r="E117" s="4">
@@ -4492,7 +4509,7 @@
       <c r="F117" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G117" s="18" t="s">
+      <c r="G117" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H117" t="s">
@@ -4500,13 +4517,13 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="9" t="s">
+      <c r="A118" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B118" t="s">
         <v>272</v>
       </c>
-      <c r="C118" s="12">
+      <c r="C118" s="10">
         <v>51</v>
       </c>
       <c r="D118" s="1" t="s">
@@ -4518,18 +4535,18 @@
       <c r="F118" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G118" s="18" t="s">
+      <c r="G118" s="15" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="9" t="s">
+      <c r="A119" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B119" t="s">
         <v>273</v>
       </c>
-      <c r="C119" s="12">
+      <c r="C119" s="10">
         <v>100</v>
       </c>
       <c r="E119" s="4">
@@ -4538,7 +4555,7 @@
       <c r="F119" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G119" s="18" t="s">
+      <c r="G119" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H119" t="s">
@@ -4546,13 +4563,13 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="9" t="s">
+      <c r="A120" s="7" t="s">
         <v>81</v>
       </c>
       <c r="B120" t="s">
         <v>274</v>
       </c>
-      <c r="C120" s="12">
+      <c r="C120" s="10">
         <v>54</v>
       </c>
       <c r="D120" s="1" t="s">
@@ -4564,7 +4581,7 @@
       <c r="F120" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G120" s="18" t="s">
+      <c r="G120" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H120" t="s">
@@ -4572,13 +4589,13 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="11">
+      <c r="A121" s="9">
         <v>11677</v>
       </c>
       <c r="B121" t="s">
         <v>268</v>
       </c>
-      <c r="C121" s="12">
+      <c r="C121" s="10">
         <v>88</v>
       </c>
       <c r="D121" t="s">
@@ -4590,7 +4607,7 @@
       <c r="F121" t="s">
         <v>347</v>
       </c>
-      <c r="G121" s="18" t="s">
+      <c r="G121" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H121" t="s">
@@ -4598,13 +4615,13 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="9" t="s">
+      <c r="A122" s="7" t="s">
         <v>133</v>
       </c>
       <c r="B122" t="s">
         <v>318</v>
       </c>
-      <c r="C122" s="12">
+      <c r="C122" s="10">
         <v>100</v>
       </c>
       <c r="E122" s="4">
@@ -4613,18 +4630,18 @@
       <c r="F122" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="G122" s="18" t="s">
+      <c r="G122" s="15" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="9" t="s">
+      <c r="A123" s="7" t="s">
         <v>124</v>
       </c>
       <c r="B123" t="s">
         <v>308</v>
       </c>
-      <c r="C123" s="12">
+      <c r="C123" s="10">
         <v>100</v>
       </c>
       <c r="E123" s="4">
@@ -4633,18 +4650,18 @@
       <c r="F123" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="G123" s="18" t="s">
+      <c r="G123" s="15" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="9" t="s">
+      <c r="A124" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B124" t="s">
         <v>185</v>
       </c>
-      <c r="C124" s="12">
+      <c r="C124" s="10">
         <v>100</v>
       </c>
       <c r="E124" s="4">
@@ -4653,7 +4670,7 @@
       <c r="F124" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G124" s="18" t="s">
+      <c r="G124" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H124" t="s">
@@ -4661,13 +4678,13 @@
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="9" t="s">
+      <c r="A125" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B125" t="s">
         <v>186</v>
       </c>
-      <c r="C125" s="12">
+      <c r="C125" s="10">
         <v>100</v>
       </c>
       <c r="E125" s="4">
@@ -4676,7 +4693,7 @@
       <c r="F125" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G125" s="18" t="s">
+      <c r="G125" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H125" t="s">
@@ -4684,13 +4701,13 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="11">
+      <c r="A126" s="9">
         <v>11457</v>
       </c>
       <c r="B126" t="s">
         <v>261</v>
       </c>
-      <c r="C126" s="12">
+      <c r="C126" s="10">
         <v>72</v>
       </c>
       <c r="D126" t="s">
@@ -4702,7 +4719,7 @@
       <c r="F126" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G126" s="18" t="s">
+      <c r="G126" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H126" t="s">
@@ -4710,13 +4727,13 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="9" t="s">
+      <c r="A127" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B127" t="s">
         <v>236</v>
       </c>
-      <c r="C127" s="12">
+      <c r="C127" s="10">
         <v>94</v>
       </c>
       <c r="D127" s="1" t="s">
@@ -4728,7 +4745,7 @@
       <c r="F127" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G127" s="18" t="s">
+      <c r="G127" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H127" t="s">
@@ -4736,13 +4753,13 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="9" t="s">
+      <c r="A128" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B128" t="s">
         <v>262</v>
       </c>
-      <c r="C128" s="12">
+      <c r="C128" s="10">
         <v>72</v>
       </c>
       <c r="E128" s="4">
@@ -4751,7 +4768,7 @@
       <c r="F128" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G128" s="18" t="s">
+      <c r="G128" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H128" t="s">
@@ -4759,13 +4776,13 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="6" t="s">
+      <c r="A129" s="9" t="s">
         <v>180</v>
       </c>
       <c r="B129" t="s">
         <v>221</v>
       </c>
-      <c r="C129" s="13">
+      <c r="C129" s="11">
         <v>100</v>
       </c>
       <c r="D129" s="3" t="s">
@@ -4775,18 +4792,18 @@
         <v>0</v>
       </c>
       <c r="F129" s="3"/>
-      <c r="G129" s="18" t="s">
+      <c r="G129" s="15" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="9" t="s">
+      <c r="A130" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B130" t="s">
         <v>220</v>
       </c>
-      <c r="C130" s="12">
+      <c r="C130" s="10">
         <v>74</v>
       </c>
       <c r="D130" s="1" t="s">
@@ -4798,7 +4815,7 @@
       <c r="F130" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G130" s="18" t="s">
+      <c r="G130" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H130" t="s">
@@ -4806,13 +4823,13 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="9" t="s">
+      <c r="A131" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B131" t="s">
         <v>263</v>
       </c>
-      <c r="C131" s="12">
+      <c r="C131" s="10">
         <v>100</v>
       </c>
       <c r="E131" s="4">
@@ -4821,7 +4838,7 @@
       <c r="F131" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G131" s="18" t="s">
+      <c r="G131" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H131" t="s">
@@ -4829,13 +4846,13 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="11">
+      <c r="A132" s="9">
         <v>11546</v>
       </c>
       <c r="B132" t="s">
         <v>265</v>
       </c>
-      <c r="C132" s="12">
+      <c r="C132" s="10">
         <v>100</v>
       </c>
       <c r="E132" s="4">
@@ -4844,7 +4861,7 @@
       <c r="F132" t="s">
         <v>169</v>
       </c>
-      <c r="G132" s="18" t="s">
+      <c r="G132" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H132" t="s">
@@ -4852,13 +4869,13 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="11">
+      <c r="A133" s="9">
         <v>11885</v>
       </c>
       <c r="B133" t="s">
         <v>269</v>
       </c>
-      <c r="C133" s="12">
+      <c r="C133" s="10">
         <v>100</v>
       </c>
       <c r="E133" s="4">
@@ -4867,7 +4884,7 @@
       <c r="F133" t="s">
         <v>6</v>
       </c>
-      <c r="G133" s="18" t="s">
+      <c r="G133" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H133" t="s">
@@ -4875,13 +4892,13 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="11">
+      <c r="A134" s="9">
         <v>11529</v>
       </c>
       <c r="B134" t="s">
         <v>264</v>
       </c>
-      <c r="C134" s="12">
+      <c r="C134" s="10">
         <v>91</v>
       </c>
       <c r="D134" t="s">
@@ -4893,7 +4910,7 @@
       <c r="F134" t="s">
         <v>6</v>
       </c>
-      <c r="G134" s="18" t="s">
+      <c r="G134" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H134" t="s">
@@ -4901,13 +4918,13 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" s="9" t="s">
+      <c r="A135" s="7" t="s">
         <v>134</v>
       </c>
       <c r="B135" t="s">
         <v>319</v>
       </c>
-      <c r="C135" s="12">
+      <c r="C135" s="10">
         <v>100</v>
       </c>
       <c r="E135" s="4">
@@ -4916,7 +4933,7 @@
       <c r="F135" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G135" s="18" t="s">
+      <c r="G135" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H135" t="s">
@@ -4924,13 +4941,13 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="9" t="s">
+      <c r="A136" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B136" t="s">
         <v>237</v>
       </c>
-      <c r="C136" s="12">
+      <c r="C136" s="10">
         <v>52</v>
       </c>
       <c r="D136" s="1" t="s">
@@ -4942,7 +4959,7 @@
       <c r="F136" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G136" s="18" t="s">
+      <c r="G136" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H136" t="s">
@@ -4950,13 +4967,13 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="14" t="s">
+      <c r="A137" s="12" t="s">
         <v>135</v>
       </c>
       <c r="B137" t="s">
         <v>320</v>
       </c>
-      <c r="C137" s="12">
+      <c r="C137" s="10">
         <v>100</v>
       </c>
       <c r="E137" s="4">
@@ -4965,7 +4982,7 @@
       <c r="F137" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="G137" s="18" t="s">
+      <c r="G137" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H137" t="s">
@@ -4973,13 +4990,13 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="9" t="s">
+      <c r="A138" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B138" t="s">
         <v>266</v>
       </c>
-      <c r="C138" s="12">
+      <c r="C138" s="10">
         <v>86</v>
       </c>
       <c r="E138" s="4">
@@ -4988,46 +5005,323 @@
       <c r="F138" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="G138" s="18" t="s">
+      <c r="G138" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H138" t="s">
         <v>325</v>
       </c>
     </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B139" t="s">
+        <v>381</v>
+      </c>
+      <c r="C139" s="10">
+        <v>100</v>
+      </c>
+      <c r="E139" s="4">
+        <v>530</v>
+      </c>
+      <c r="F139" t="s">
+        <v>386</v>
+      </c>
+      <c r="H139" t="s">
+        <v>386</v>
+      </c>
+    </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="15"/>
-      <c r="C140" s="13"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="3"/>
+      <c r="A140" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B140" t="s">
+        <v>382</v>
+      </c>
+      <c r="C140" s="10">
+        <v>100</v>
+      </c>
+      <c r="E140" s="4">
+        <v>530</v>
+      </c>
+      <c r="F140" t="s">
+        <v>386</v>
+      </c>
+      <c r="H140" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B141" t="s">
+        <v>383</v>
+      </c>
+      <c r="C141" s="10">
+        <v>100</v>
+      </c>
+      <c r="E141" s="4">
+        <v>530</v>
+      </c>
+      <c r="F141" t="s">
+        <v>386</v>
+      </c>
+      <c r="H141" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="7"/>
+      <c r="A142" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B142" t="s">
+        <v>384</v>
+      </c>
+      <c r="C142" s="10">
+        <v>100</v>
+      </c>
+      <c r="E142" s="4">
+        <v>530</v>
+      </c>
+      <c r="F142" t="s">
+        <v>386</v>
+      </c>
+      <c r="H142" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143" s="7"/>
-      <c r="E143" s="4" t="s">
-        <v>162</v>
+      <c r="A143" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B143" t="s">
+        <v>385</v>
+      </c>
+      <c r="C143" s="10">
+        <v>100</v>
+      </c>
+      <c r="E143" s="4">
+        <v>530</v>
+      </c>
+      <c r="F143" t="s">
+        <v>386</v>
+      </c>
+      <c r="H143" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144" s="7"/>
-      <c r="D144" s="4"/>
-      <c r="F144" s="4"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="7"/>
-      <c r="D145" s="4"/>
-      <c r="F145" s="4"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="7"/>
-      <c r="D146" s="4"/>
-      <c r="F146" s="4"/>
+      <c r="A144" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="B144" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="C144" s="10">
+        <v>77</v>
+      </c>
+      <c r="E144" s="4">
+        <v>835</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H144" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B145" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="C145" s="10">
+        <v>77</v>
+      </c>
+      <c r="E145" s="4">
+        <v>835</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H145" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="B146" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="C146" s="10">
+        <v>100</v>
+      </c>
+      <c r="E146" s="4">
+        <v>226</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H146" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="B147" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="C147" s="10">
+        <v>100</v>
+      </c>
+      <c r="E147" s="4">
+        <v>226</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H147" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B148" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="C148" s="10">
+        <v>100</v>
+      </c>
+      <c r="E148" s="4">
+        <v>226</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H148" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B149" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="C149" s="10">
+        <v>100</v>
+      </c>
+      <c r="E149" s="4">
+        <v>226</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H149" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B150" s="32" t="s">
+        <v>394</v>
+      </c>
+      <c r="C150" s="10">
+        <v>100</v>
+      </c>
+      <c r="E150" s="4">
+        <v>226</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H150" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" s="33">
+        <v>20452</v>
+      </c>
+      <c r="B151" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="C151" s="10">
+        <v>100</v>
+      </c>
+      <c r="E151" s="4">
+        <v>226</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H151" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B153" s="7"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B154" s="12"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B155" s="7"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B156" s="7"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B157" s="7"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B158" s="5"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B159" s="5"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B160" s="5"/>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B161" s="9"/>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B162" s="9"/>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B163" s="7"/>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B164" s="7"/>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B165" s="7"/>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B166" s="7"/>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B167" s="7"/>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B168" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F61">
+  <autoFilter ref="A1:F61" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="A2:F138">
       <sortCondition descending="1" ref="E1:E138"/>
     </sortState>
@@ -5035,7 +5329,10 @@
   <sortState ref="A2:G138">
     <sortCondition ref="B2:B138"/>
   </sortState>
-  <conditionalFormatting sqref="A1:B1048576">
+  <conditionalFormatting sqref="A152:B152 A1:B143 A146:A151 A169:B1048576 A153:A168">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B153:B160 B163:B168">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
